--- a/War-Inc._Planung_Prioritäten.xlsx
+++ b/War-Inc._Planung_Prioritäten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\World of Warcraft\Interface\AddOns\PowerIncoming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\World of Warcraft\Interface\AddOns\War_Inc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -328,14 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E23"/>
+  <sortState ref="A2:E23">
+    <sortCondition ref="D1:D23"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" name="Bezeichnung" dataDxfId="5"/>
-    <tableColumn id="5" name="Kategorie" dataDxfId="0"/>
-    <tableColumn id="3" name="Priorität" dataDxfId="4"/>
-    <tableColumn id="4" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Bezeichnung" dataDxfId="3"/>
+    <tableColumn id="5" name="Kategorie" dataDxfId="2"/>
+    <tableColumn id="3" name="Priorität" dataDxfId="1"/>
+    <tableColumn id="4" name="Beschreibung" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -641,7 +644,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,16 +747,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
         <f>SUM(H2:H4)</f>
@@ -762,10 +765,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -776,30 +779,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -821,41 +821,41 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -863,36 +863,36 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -911,103 +911,106 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
